--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>NAME</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>DRIVEN_PULLEY_housing</t>
+  </si>
+  <si>
+    <t>ENDSTOP_support</t>
   </si>
 </sst>
 </file>
@@ -530,13 +533,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -692,13 +695,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1766786</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1358900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1692,6 +1695,50 @@
         <a:xfrm>
           <a:off x="4470400" y="24866600"/>
           <a:ext cx="1242294" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1816101</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1419663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8" descr="Capture d’écran 2018-04-26 à 14.01.12.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4597401" y="34785300"/>
+          <a:ext cx="1092200" cy="1368863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2025,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2368,18 +2415,31 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
+    <row r="26" spans="1:7" ht="113" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -2074,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -111,7 +111,7 @@
     <t>DRIVEN_PULLEY_housing</t>
   </si>
   <si>
-    <t>ENDSTOP_support</t>
+    <t>ENDSTOPX_support</t>
   </si>
 </sst>
 </file>
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -2074,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>NAME</t>
   </si>
@@ -63,18 +63,12 @@
     <t>BOTTOM_AXIS_right</t>
   </si>
   <si>
-    <t>TOP_AXIS</t>
-  </si>
-  <si>
     <t>CLIPBOARD</t>
   </si>
   <si>
     <t>YMOTOR_support_220</t>
   </si>
   <si>
-    <t>SWITCH_support</t>
-  </si>
-  <si>
     <t>PAPER_GUIDE_left_1</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>LID_LOCK</t>
   </si>
   <si>
-    <t>PAPER_RAISER</t>
-  </si>
-  <si>
     <t>for 200mm GT2 timing belt</t>
   </si>
   <si>
@@ -105,13 +96,25 @@
     <t>IMAGE</t>
   </si>
   <si>
-    <t>DRIVEN_PULLEY_support</t>
-  </si>
-  <si>
     <t>DRIVEN_PULLEY_housing</t>
   </si>
   <si>
-    <t>ENDSTOPX_support</t>
+    <t>TOP_AXIS_right</t>
+  </si>
+  <si>
+    <t>TOP_AXIS_left</t>
+  </si>
+  <si>
+    <t>KFL8_support</t>
+  </si>
+  <si>
+    <t>SWITCH_Y_support</t>
+  </si>
+  <si>
+    <t>SWITCH_X_support</t>
+  </si>
+  <si>
+    <t>PAPER_raiser</t>
   </si>
 </sst>
 </file>
@@ -348,13 +351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>663480</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>675600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1387080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -385,13 +388,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867520</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1361520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -422,13 +425,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>663480</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1417320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>678360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1268280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -496,13 +499,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>828720</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>835520</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1327320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -533,13 +536,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -650,69 +653,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2336800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1417675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 32" descr="Capture d’écran 2018-04-08 à 15.38.14.png"/>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1766786</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1358900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 41" descr="Capture d’écran 2018-04-10 à 23.55.52.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4445000" y="4775200"/>
-          <a:ext cx="1765300" cy="1379575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1766786</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1358900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 41" descr="Capture d’écran 2018-04-10 à 23.55.52.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -738,479 +697,831 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1834650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1422400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14" descr="Capture d’écran 2018-04-23 à 10.44.36.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="6108700"/>
+          <a:ext cx="907550" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1395095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21" descr="Capture d’écran 2018-04-23 à 10.46.26.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4406900" y="7543800"/>
+          <a:ext cx="1574800" cy="1318895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1974989</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1397000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22" descr="Capture d’écran 2018-04-23 à 12.45.35.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="8991600"/>
+          <a:ext cx="1238389" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1392227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 28" descr="Capture d’écran 2018-04-23 à 12.59.08.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="27673300"/>
+          <a:ext cx="1803400" cy="1277927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1364492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 36" descr="Capture d’écran 2018-04-23 à 13.02.43.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178300" y="29070300"/>
+          <a:ext cx="2082800" cy="1288292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1362161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 43" descr="Capture d’écran 2018-04-23 à 13.09.14.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4254500" y="30505401"/>
+          <a:ext cx="1778000" cy="1285960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1380991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Image 44" descr="Capture d’écran 2018-04-23 à 13.10.41.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216400" y="31953200"/>
+          <a:ext cx="1866900" cy="1292091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1382546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 51" descr="Capture d’écran 2018-04-23 à 13.38.51.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4597400" y="16154400"/>
+          <a:ext cx="1422400" cy="1306346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1398640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 52" descr="Capture d’écran 2018-04-23 à 13.41.41.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4241800" y="19024600"/>
+          <a:ext cx="1917700" cy="1322440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2222500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1409119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Capture d’écran 2018-04-25 à 10.19.33.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="36245800"/>
+          <a:ext cx="1905000" cy="1332919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2006600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1389041</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13" descr="Capture d’écran 2018-04-23 à 10.40.37.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4673600" y="1790700"/>
-          <a:ext cx="1206500" cy="1325541"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1834650</xdr:colOff>
+      <xdr:colOff>1860768</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1422400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 14" descr="Capture d’écran 2018-04-23 à 10.44.36.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="6108700"/>
-          <a:ext cx="907550" cy="1346200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+        <xdr:cNvPr id="5" name="Image 4" descr="Capture d’écran 2018-04-25 à 10.52.29.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673599" y="4660900"/>
+          <a:ext cx="1060669" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1839194</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7" descr="Capture d’écran 2018-04-26 à 10.52.19.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4470400" y="24866600"/>
+          <a:ext cx="1242294" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1389766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9" descr="Capture d’écran 2018-04-30 à 12.29.09.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="3251200"/>
+          <a:ext cx="1511300" cy="1300866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1396685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10" descr="Capture d’écran 2018-04-30 à 12.32.58.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356100" y="14732000"/>
+          <a:ext cx="1676400" cy="1307785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1378735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15" descr="Capture d’écran 2018-04-30 à 12.44.20.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="17589500"/>
+          <a:ext cx="1714500" cy="1302535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1395095</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 21" descr="Capture d’écran 2018-04-23 à 10.46.26.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4406900" y="7543800"/>
-          <a:ext cx="1574800" cy="1318895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1974989</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1426785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Capture d’écran 2018-04-30 à 12.46.18.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4241800" y="19011900"/>
+          <a:ext cx="1739900" cy="1363285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1350503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17" descr="Capture d’écran 2018-04-30 à 12.50.34.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216400" y="1828800"/>
+          <a:ext cx="1854200" cy="1248903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2267122</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1397000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 22" descr="Capture d’écran 2018-04-23 à 12.45.35.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4610100" y="8991600"/>
-          <a:ext cx="1238389" cy="1308100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+        <xdr:cNvPr id="20" name="Image 19" descr="Capture d’écran 2018-04-30 à 13.00.29.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4254500" y="13271500"/>
+          <a:ext cx="1886122" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2197100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1392227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 28" descr="Capture d’écran 2018-04-23 à 12.59.08.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="27673300"/>
-          <a:ext cx="1803400" cy="1277927"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2387600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1364492</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 36" descr="Capture d’écran 2018-04-23 à 13.02.43.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4178300" y="29070300"/>
-          <a:ext cx="2082800" cy="1288292"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1397054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Image 42" descr="Capture d’écran 2018-04-23 à 13.05.19.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4292600" y="17576800"/>
-          <a:ext cx="1828800" cy="1333554"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1362161</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 43" descr="Capture d’écran 2018-04-23 à 13.09.14.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254500" y="30505401"/>
-          <a:ext cx="1778000" cy="1285960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1380991</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 44" descr="Capture d’écran 2018-04-23 à 13.10.41.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4216400" y="31953200"/>
-          <a:ext cx="1866900" cy="1292091"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1412722</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Image 45" descr="Capture d’écran 2018-04-23 à 12.53.23.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4546600" y="33362899"/>
-          <a:ext cx="1231900" cy="1349223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2286001</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1377856</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Image 46" descr="Capture d’écran 2018-04-23 à 13.22.54.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4254501" y="10401300"/>
-          <a:ext cx="1905000" cy="1314356"/>
+      <xdr:colOff>2273301</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1319064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20" descr="Capture d’écran 2018-04-30 à 13.02.38.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4279901" y="10452100"/>
+          <a:ext cx="1866900" cy="1204764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,522 +1534,258 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2107906</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1384300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 48" descr="Capture d’écran 2018-04-23 à 13.27.14.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4394200" y="11849100"/>
-          <a:ext cx="1587206" cy="1308100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:colOff>2032000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1419882</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 49" descr="Capture d’écran 2018-04-23 à 13.28.03.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4368800" y="13258800"/>
-          <a:ext cx="1562100" cy="1369082"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2419366</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1397000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 50" descr="Capture d’écran 2018-04-23 à 13.37.11.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4089400" y="14706600"/>
-          <a:ext cx="2203466" cy="1333500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1420967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 23" descr="Capture d’écran 2018-04-30 à 13.04.03.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4394200" y="11823700"/>
+          <a:ext cx="1511300" cy="1370167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1955800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1425736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24" descr="Capture d’écran 2018-04-30 à 13.06.26.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="3213100"/>
+          <a:ext cx="1333500" cy="1374936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1961270</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 25" descr="Capture d’écran 2018-04-30 à 13.12.48.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4432300" y="33388300"/>
+          <a:ext cx="1402470" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2012459</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1384301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 26" descr="Capture d’écran 2018-04-30 à 13.15.29.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4483100" y="36271201"/>
+          <a:ext cx="1402859" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1382546</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 51" descr="Capture d’écran 2018-04-23 à 13.38.51.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4597400" y="16154400"/>
-          <a:ext cx="1422400" cy="1306346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>2088527</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 29" descr="Capture d’écran 2018-04-30 à 13.20.16.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4279900" y="23329900"/>
+          <a:ext cx="1682127" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1398640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 52" descr="Capture d’écran 2018-04-23 à 13.41.41.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4241800" y="19024600"/>
-          <a:ext cx="1917700" cy="1322440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2413040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1257300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Image 57" descr="Capture d’écran 2018-04-24 à 12.10.29.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4013200" y="20574000"/>
-          <a:ext cx="2273340" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71304</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2463800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>2288906</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1358900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 58" descr="Capture d’écran 2018-04-24 à 12.20.44.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="21889904"/>
-          <a:ext cx="2374900" cy="1287596"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2222500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1409119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Capture d’écran 2018-04-25 à 10.19.33.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="36245800"/>
-          <a:ext cx="1905000" cy="1332919"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800099</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1860768</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1422400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Capture d’écran 2018-04-25 à 10.52.29.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4673599" y="4660900"/>
-          <a:ext cx="1060669" cy="1358900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>546101</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1979557</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1397001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="Capture d’écran 2018-04-26 à 10.47.29.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4419601" y="23368001"/>
-          <a:ext cx="1433456" cy="1282700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1839194</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7" descr="Capture d’écran 2018-04-26 à 10.52.19.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4470400" y="24866600"/>
-          <a:ext cx="1242294" cy="1155700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1816101</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1419663</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8" descr="Capture d’écran 2018-04-26 à 14.01.12.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4597401" y="34785300"/>
-          <a:ext cx="1092200" cy="1368863"/>
+        <xdr:cNvPr id="31" name="Image 30" descr="Capture d’écran 2018-04-30 à 13.35.01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4102099" y="24765000"/>
+          <a:ext cx="2060307" cy="1282700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2072,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2091,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2118,7 +2165,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2127,11 +2174,11 @@
     </row>
     <row r="4" spans="1:7" ht="113" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2140,29 +2187,27 @@
     </row>
     <row r="5" spans="1:7" ht="113" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="113" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2170,24 +2215,26 @@
     </row>
     <row r="7" spans="1:7" ht="113" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="113" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2196,11 +2243,11 @@
     </row>
     <row r="9" spans="1:7" ht="113" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2209,7 +2256,7 @@
     </row>
     <row r="10" spans="1:7" ht="113" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -2222,7 +2269,7 @@
     </row>
     <row r="11" spans="1:7" ht="113" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -2235,7 +2282,7 @@
     </row>
     <row r="12" spans="1:7" ht="113" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -2248,7 +2295,7 @@
     </row>
     <row r="13" spans="1:7" ht="113" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -2261,11 +2308,11 @@
     </row>
     <row r="14" spans="1:7" ht="113" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2274,11 +2321,11 @@
     </row>
     <row r="15" spans="1:7" ht="113" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2287,7 +2334,7 @@
     </row>
     <row r="16" spans="1:7" ht="113" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -2300,11 +2347,11 @@
     </row>
     <row r="17" spans="1:7" ht="113" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2313,11 +2360,11 @@
     </row>
     <row r="18" spans="1:7" ht="113" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2326,33 +2373,33 @@
     </row>
     <row r="19" spans="1:7" ht="113" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
+    <row r="20" spans="1:7" ht="113" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -2365,7 +2412,7 @@
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -2378,7 +2425,7 @@
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -2389,26 +2436,26 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="113" customHeight="1">
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="113" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2417,29 +2464,42 @@
     </row>
     <row r="26" spans="1:7" ht="113" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
+    <row r="27" spans="1:7" ht="113" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="113" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -2121,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="0" windowWidth="27120" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>NAME</t>
   </si>
@@ -69,18 +69,6 @@
     <t>YMOTOR_support_220</t>
   </si>
   <si>
-    <t>PAPER_GUIDE_left_1</t>
-  </si>
-  <si>
-    <t>PAPER_GUIDE_left_2</t>
-  </si>
-  <si>
-    <t>PAPER_GUIDE_right_1</t>
-  </si>
-  <si>
-    <t>PAPER_GUIDE_right_2</t>
-  </si>
-  <si>
     <t>LID_LOCK</t>
   </si>
   <si>
@@ -118,13 +106,19 @@
   </si>
   <si>
     <t>POWER_plate</t>
+  </si>
+  <si>
+    <t>PAPER_GUIDE_left</t>
+  </si>
+  <si>
+    <t>PAPER_GUIDE_right</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -178,8 +172,21 @@
       <name val="Avenir Black"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir Black"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +209,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,7 +246,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +279,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -555,13 +584,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -804,19 +833,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2197100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1392227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 28" descr="Capture d’écran 2018-04-23 à 12.59.08.png"/>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1382546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 51" descr="Capture d’écran 2018-04-23 à 13.38.51.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -835,32 +864,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="27673300"/>
-          <a:ext cx="1803400" cy="1277927"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+          <a:off x="4597400" y="16154400"/>
+          <a:ext cx="1422400" cy="1306346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2387600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1364492</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 36" descr="Capture d’écran 2018-04-23 à 13.02.43.png"/>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1398640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 52" descr="Capture d’écran 2018-04-23 à 13.41.41.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -879,32 +908,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4178300" y="29070300"/>
-          <a:ext cx="2082800" cy="1288292"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1362161</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Image 43" descr="Capture d’écran 2018-04-23 à 13.09.14.png"/>
+          <a:off x="4241800" y="19024600"/>
+          <a:ext cx="1917700" cy="1322440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1860768</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1422400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="Capture d’écran 2018-04-25 à 10.52.29.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -923,32 +952,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4254500" y="30505401"/>
-          <a:ext cx="1778000" cy="1285960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1380991</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Image 44" descr="Capture d’écran 2018-04-23 à 13.10.41.png"/>
+          <a:off x="4673599" y="4660900"/>
+          <a:ext cx="1060669" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1839194</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7" descr="Capture d’écran 2018-04-26 à 10.52.19.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -967,32 +996,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4216400" y="31953200"/>
-          <a:ext cx="1866900" cy="1292091"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1382546</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 51" descr="Capture d’écran 2018-04-23 à 13.38.51.png"/>
+          <a:off x="4470400" y="24866600"/>
+          <a:ext cx="1242294" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1389766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9" descr="Capture d’écran 2018-04-30 à 12.29.09.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1011,32 +1040,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4597400" y="16154400"/>
-          <a:ext cx="1422400" cy="1306346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1398640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 52" descr="Capture d’écran 2018-04-23 à 13.41.41.png"/>
+          <a:off x="4419600" y="3251200"/>
+          <a:ext cx="1511300" cy="1300866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1396685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10" descr="Capture d’écran 2018-04-30 à 12.32.58.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1055,32 +1084,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4241800" y="19024600"/>
-          <a:ext cx="1917700" cy="1322440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>24</xdr:row>
+          <a:off x="4356100" y="14732000"/>
+          <a:ext cx="1676400" cy="1307785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2222500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1409119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Capture d’écran 2018-04-25 à 10.19.33.png"/>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1378735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15" descr="Capture d’écran 2018-04-30 à 12.44.20.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1099,32 +1128,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="36245800"/>
-          <a:ext cx="1905000" cy="1332919"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800099</xdr:colOff>
-      <xdr:row>4</xdr:row>
+          <a:off x="4305300" y="17589500"/>
+          <a:ext cx="1714500" cy="1302535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1860768</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1422400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Capture d’écran 2018-04-25 à 10.52.29.png"/>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1426785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Capture d’écran 2018-04-30 à 12.46.18.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1143,32 +1172,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4673599" y="4660900"/>
-          <a:ext cx="1060669" cy="1358900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1839194</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7" descr="Capture d’écran 2018-04-26 à 10.52.19.png"/>
+          <a:off x="4241800" y="19011900"/>
+          <a:ext cx="1739900" cy="1363285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1350503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17" descr="Capture d’écran 2018-04-30 à 12.50.34.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1187,32 +1216,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4470400" y="24866600"/>
-          <a:ext cx="1242294" cy="1155700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1389766</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9" descr="Capture d’écran 2018-04-30 à 12.29.09.png"/>
+          <a:off x="4216400" y="1828800"/>
+          <a:ext cx="1854200" cy="1248903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2267122</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1397000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 19" descr="Capture d’écran 2018-04-30 à 13.00.29.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1231,32 +1260,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="3251200"/>
-          <a:ext cx="1511300" cy="1300866"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1396685</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10" descr="Capture d’écran 2018-04-30 à 12.32.58.png"/>
+          <a:off x="4254500" y="13271500"/>
+          <a:ext cx="1886122" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2273301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1319064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20" descr="Capture d’écran 2018-04-30 à 13.02.38.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1275,32 +1304,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4356100" y="14732000"/>
-          <a:ext cx="1676400" cy="1307785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1378735</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 15" descr="Capture d’écran 2018-04-30 à 12.44.20.png"/>
+          <a:off x="4279901" y="10452100"/>
+          <a:ext cx="1866900" cy="1204764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1420967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 23" descr="Capture d’écran 2018-04-30 à 13.04.03.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1319,32 +1348,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="17589500"/>
-          <a:ext cx="1714500" cy="1302535"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1426785</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 16" descr="Capture d’écran 2018-04-30 à 12.46.18.png"/>
+          <a:off x="4394200" y="11823700"/>
+          <a:ext cx="1511300" cy="1370167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2012459</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1384301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 26" descr="Capture d’écran 2018-04-30 à 13.15.29.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1363,32 +1392,69 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4241800" y="19011900"/>
-          <a:ext cx="1739900" cy="1363285"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2197100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1350503</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 17" descr="Capture d’écran 2018-04-30 à 12.50.34.png"/>
+          <a:off x="4483100" y="36271201"/>
+          <a:ext cx="1402859" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>867620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1352880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 38"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4740380" y="37663020"/>
+          <a:ext cx="740" cy="1294560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1918594</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13" descr="Capture d’écran 2018-06-29 à 15.45.38.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1407,32 +1473,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4216400" y="1828800"/>
-          <a:ext cx="1854200" cy="1248903"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2267122</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1397000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 19" descr="Capture d’écran 2018-04-30 à 13.00.29.png"/>
+          <a:off x="4508500" y="39103300"/>
+          <a:ext cx="1283594" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>774701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2091420</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1358900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 40" descr="Capture d’écran 2018-06-03 à 10.23.29.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1451,32 +1517,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4254500" y="13271500"/>
-          <a:ext cx="1886122" cy="1333500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2273301</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1319064</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 20" descr="Capture d’écran 2018-04-30 à 13.02.38.png"/>
+          <a:off x="4648201" y="39154100"/>
+          <a:ext cx="1316719" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2070100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1367546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24" descr="Capture d’écran 2018-10-16 à 17.51.13.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1495,32 +1561,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4279901" y="10452100"/>
-          <a:ext cx="1866900" cy="1204764"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1420967</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 23" descr="Capture d’écran 2018-04-30 à 13.04.03.png"/>
+          <a:off x="4356100" y="26200101"/>
+          <a:ext cx="1587500" cy="1291345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2273300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1381391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 25" descr="Capture d’écran 2018-10-16 à 17.54.39.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1539,32 +1605,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4394200" y="11823700"/>
-          <a:ext cx="1511300" cy="1370167"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2012459</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1384301</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 26" descr="Capture d’écran 2018-04-30 à 13.15.29.png"/>
+          <a:off x="4229100" y="27635201"/>
+          <a:ext cx="1917700" cy="1305190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1333321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 32" descr="Capture d’écran 2018-10-16 à 17.56.32.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1583,32 +1649,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4483100" y="36271201"/>
-          <a:ext cx="1402859" cy="1282700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+          <a:off x="4381500" y="30492701"/>
+          <a:ext cx="1651000" cy="1269820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177799</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2088527</xdr:colOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2465066</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1409700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 29" descr="Capture d’écran 2018-04-30 à 13.20.16.png"/>
+        <xdr:cNvPr id="34" name="Image 33" descr="Capture d’écran 2018-10-16 à 17.58.57.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1627,32 +1693,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4279900" y="23329900"/>
-          <a:ext cx="1682127" cy="1333500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+          <a:off x="4051299" y="21844000"/>
+          <a:ext cx="2287267" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2288906</xdr:colOff>
+      <xdr:colOff>2476500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1358900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 30" descr="Capture d’écran 2018-04-30 à 13.35.01.png"/>
+      <xdr:rowOff>1398749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 34" descr="Capture d’écran 2018-10-16 à 18.07.39.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1671,32 +1737,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4102099" y="24765000"/>
-          <a:ext cx="2060307" cy="1282700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2089485</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1397000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="Capture d’écran 2018-06-29 à 15.36.05.png"/>
+          <a:off x="3975100" y="23329900"/>
+          <a:ext cx="2374900" cy="1322549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1395355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 35" descr="Capture d’écran 2018-10-16 à 18.16.03.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1715,32 +1781,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4368801" y="33350200"/>
-          <a:ext cx="1594184" cy="1346200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+          <a:off x="4368800" y="29057600"/>
+          <a:ext cx="1638300" cy="1331855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1955800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1365397</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8" descr="Capture d’écran 2018-06-29 à 15.36.44.png"/>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1421290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 38" descr="Capture d’écran 2018-10-16 à 18.18.49.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1759,133 +1825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4521200" y="37655500"/>
-          <a:ext cx="1308100" cy="1314597"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1352880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 38"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4740380" y="37663020"/>
-          <a:ext cx="740" cy="1294560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1918594</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1384300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13" descr="Capture d’écran 2018-06-29 à 15.45.38.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4508500" y="39103300"/>
-          <a:ext cx="1283594" cy="1320800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774701</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2091420</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1358900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 40" descr="Capture d’écran 2018-06-03 à 10.23.29.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4648201" y="39154100"/>
-          <a:ext cx="1316719" cy="1257300"/>
+          <a:off x="4495800" y="33350200"/>
+          <a:ext cx="1244600" cy="1370490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2219,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2231,6 +2172,7 @@
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="23">
@@ -2238,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="113" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -2255,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -2268,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
@@ -2281,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -2294,9 +2236,9 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -2309,9 +2251,9 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -2324,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -2337,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -2350,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -2363,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -2376,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
@@ -2389,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
@@ -2402,61 +2344,61 @@
         <v>1</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="113" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="113" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="113" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="113" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:10" s="17" customFormat="1" ht="113" customHeight="1">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="113" customHeight="1">
       <c r="A18" s="4" t="s">
@@ -2467,26 +2409,26 @@
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="113" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -2499,7 +2441,7 @@
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -2512,7 +2454,7 @@
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -2525,11 +2467,11 @@
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2538,84 +2480,58 @@
     </row>
     <row r="24" spans="1:10" ht="113" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="113" customHeight="1">
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
         <v>2</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="113" customHeight="1">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
